--- a/Archivio 2/tr.xlsx
+++ b/Archivio 2/tr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilo/pm/Archivio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/pm/Archivio 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DAF3C4-5CC8-B749-8BA3-6E448900E7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297541F4-F74F-444F-B40F-8F75EB504BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17480" xr2:uid="{E908DB15-B5F5-5D4A-9C9A-088046CFFB56}"/>
+    <workbookView xWindow="15040" yWindow="580" windowWidth="28800" windowHeight="17480" xr2:uid="{E908DB15-B5F5-5D4A-9C9A-088046CFFB56}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Billable Rev. A</t>
   </si>
@@ -45,9 +45,6 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>2544-00-PID-0001</t>
-  </si>
-  <si>
     <t>2544-00-PID-0002</t>
   </si>
   <si>
@@ -67,13 +64,43 @@
   </si>
   <si>
     <t>Some comments…</t>
+  </si>
+  <si>
+    <t>DELIVERABLE</t>
+  </si>
+  <si>
+    <t>DOC Q.TY</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>MR-1151</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,11 +151,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -443,94 +481,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D22CD35-BA55-8C4B-A4F0-AB7A38C5F8AC}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D5" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="D6" s="2">
         <v>0.25</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="D8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="D10" s="2">
         <v>1.25</v>
       </c>
     </row>
